--- a/Code/Results/Cases/Case_7_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_42/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030470891763143</v>
+        <v>1.025842792350584</v>
       </c>
       <c r="D2">
-        <v>1.046577118900839</v>
+        <v>1.043758861220466</v>
       </c>
       <c r="E2">
-        <v>1.042364269802637</v>
+        <v>1.038829426664533</v>
       </c>
       <c r="F2">
-        <v>1.052955177408046</v>
+        <v>1.049827559926405</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055836686965494</v>
+        <v>1.055763491267702</v>
       </c>
       <c r="J2">
-        <v>1.051776911016072</v>
+        <v>1.04727709852006</v>
       </c>
       <c r="K2">
-        <v>1.05742356849343</v>
+        <v>1.054640455885848</v>
       </c>
       <c r="L2">
-        <v>1.053263343364204</v>
+        <v>1.049773066029858</v>
       </c>
       <c r="M2">
-        <v>1.0637229534234</v>
+        <v>1.060633766555475</v>
       </c>
       <c r="N2">
-        <v>1.053270554870213</v>
+        <v>1.048764352124321</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036495109336727</v>
+        <v>1.029818315874002</v>
       </c>
       <c r="D3">
-        <v>1.051245801403894</v>
+        <v>1.046784677782248</v>
       </c>
       <c r="E3">
-        <v>1.047397171636087</v>
+        <v>1.042069684294893</v>
       </c>
       <c r="F3">
-        <v>1.05809731625804</v>
+        <v>1.053245104260921</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057654067962915</v>
+        <v>1.056940911352884</v>
       </c>
       <c r="J3">
-        <v>1.056038015202404</v>
+        <v>1.049527840382712</v>
       </c>
       <c r="K3">
-        <v>1.061262426271877</v>
+        <v>1.056851989856716</v>
       </c>
       <c r="L3">
-        <v>1.057457493022874</v>
+        <v>1.052191150690992</v>
       </c>
       <c r="M3">
-        <v>1.068037118455183</v>
+        <v>1.063239184728697</v>
       </c>
       <c r="N3">
-        <v>1.057537710313245</v>
+        <v>1.051018290298581</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040300386006824</v>
+        <v>1.03234534114181</v>
       </c>
       <c r="D4">
-        <v>1.054197212897492</v>
+        <v>1.048711020431705</v>
       </c>
       <c r="E4">
-        <v>1.050581665186884</v>
+        <v>1.044134698390089</v>
       </c>
       <c r="F4">
-        <v>1.061350501078772</v>
+        <v>1.055422588008841</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058791659573501</v>
+        <v>1.057681786668385</v>
       </c>
       <c r="J4">
-        <v>1.058726512874471</v>
+        <v>1.050956340541364</v>
       </c>
       <c r="K4">
-        <v>1.063682734982999</v>
+        <v>1.058255051319853</v>
       </c>
       <c r="L4">
-        <v>1.060105662059618</v>
+        <v>1.053728111410733</v>
       </c>
       <c r="M4">
-        <v>1.070760845100167</v>
+        <v>1.064895143449289</v>
       </c>
       <c r="N4">
-        <v>1.060230025960381</v>
+        <v>1.052448819091309</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041878901207065</v>
+        <v>1.033397164898816</v>
       </c>
       <c r="D5">
-        <v>1.055422022255305</v>
+        <v>1.04951350175239</v>
       </c>
       <c r="E5">
-        <v>1.051903895923682</v>
+        <v>1.044995470919359</v>
       </c>
       <c r="F5">
-        <v>1.062701146677078</v>
+        <v>1.056330119140107</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059261020339858</v>
+        <v>1.057988321052492</v>
       </c>
       <c r="J5">
-        <v>1.059840973898099</v>
+        <v>1.05155037632311</v>
       </c>
       <c r="K5">
-        <v>1.064685581941529</v>
+        <v>1.058838369471861</v>
       </c>
       <c r="L5">
-        <v>1.061203859143788</v>
+        <v>1.054367790603302</v>
       </c>
       <c r="M5">
-        <v>1.071890318176814</v>
+        <v>1.065584330383711</v>
       </c>
       <c r="N5">
-        <v>1.061346069646494</v>
+        <v>1.053043698472002</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042142724001442</v>
+        <v>1.033573162205501</v>
       </c>
       <c r="D6">
-        <v>1.055626756092928</v>
+        <v>1.049647816463729</v>
       </c>
       <c r="E6">
-        <v>1.052124955545453</v>
+        <v>1.045139573022587</v>
       </c>
       <c r="F6">
-        <v>1.062926950525112</v>
+        <v>1.056482041915221</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059339315685678</v>
+        <v>1.0580395031794</v>
       </c>
       <c r="J6">
-        <v>1.060027189930289</v>
+        <v>1.051649740831444</v>
       </c>
       <c r="K6">
-        <v>1.06485312188103</v>
+        <v>1.058935932890956</v>
       </c>
       <c r="L6">
-        <v>1.06138738411734</v>
+        <v>1.054474821684202</v>
       </c>
       <c r="M6">
-        <v>1.072079066289628</v>
+        <v>1.065699643945667</v>
       </c>
       <c r="N6">
-        <v>1.061532550126808</v>
+        <v>1.053143204089336</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040321560330034</v>
+        <v>1.032359436637403</v>
       </c>
       <c r="D7">
-        <v>1.054213640713813</v>
+        <v>1.048721771855054</v>
       </c>
       <c r="E7">
-        <v>1.050599396908474</v>
+        <v>1.044146228709396</v>
       </c>
       <c r="F7">
-        <v>1.061368614282171</v>
+        <v>1.055434745157935</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058797965708977</v>
+        <v>1.057685901840378</v>
       </c>
       <c r="J7">
-        <v>1.058741465520729</v>
+        <v>1.05096430342003</v>
       </c>
       <c r="K7">
-        <v>1.063696191878517</v>
+        <v>1.058262871088906</v>
       </c>
       <c r="L7">
-        <v>1.060120394708394</v>
+        <v>1.053736683990738</v>
       </c>
       <c r="M7">
-        <v>1.070775997560945</v>
+        <v>1.064904379577535</v>
       </c>
       <c r="N7">
-        <v>1.060244999841112</v>
+        <v>1.052456793278178</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032526635949152</v>
+        <v>1.027195944883969</v>
       </c>
       <c r="D8">
-        <v>1.048169745588934</v>
+        <v>1.044788110306274</v>
       </c>
       <c r="E8">
-        <v>1.044080556619679</v>
+        <v>1.039931173798443</v>
       </c>
       <c r="F8">
-        <v>1.054708802624783</v>
+        <v>1.050989695868947</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056459014748044</v>
+        <v>1.056165812283735</v>
       </c>
       <c r="J8">
-        <v>1.05323161658744</v>
+        <v>1.048043624024207</v>
       </c>
       <c r="K8">
-        <v>1.058734486836179</v>
+        <v>1.055393740908541</v>
       </c>
       <c r="L8">
-        <v>1.054694784305735</v>
+        <v>1.050596111163836</v>
       </c>
       <c r="M8">
-        <v>1.065195397948214</v>
+        <v>1.061520588997577</v>
       </c>
       <c r="N8">
-        <v>1.054727326290349</v>
+        <v>1.049531966182605</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.01803217727475</v>
+        <v>1.017733832360095</v>
       </c>
       <c r="D9">
-        <v>1.036953996255149</v>
+        <v>1.037605226894559</v>
       </c>
       <c r="E9">
-        <v>1.032005412543503</v>
+        <v>1.032251107156034</v>
       </c>
       <c r="F9">
-        <v>1.042369316580194</v>
+        <v>1.042886475581981</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052028832730064</v>
+        <v>1.053321885777536</v>
       </c>
       <c r="J9">
-        <v>1.042963856727339</v>
+        <v>1.042675538478111</v>
       </c>
       <c r="K9">
-        <v>1.049474680037968</v>
+        <v>1.05011628807037</v>
       </c>
       <c r="L9">
-        <v>1.044599721572121</v>
+        <v>1.044841739541253</v>
       </c>
       <c r="M9">
-        <v>1.054810447402214</v>
+        <v>1.05532006397948</v>
       </c>
       <c r="N9">
-        <v>1.044444985033518</v>
+        <v>1.044156257339306</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.00778570530398</v>
+        <v>1.011158446510624</v>
       </c>
       <c r="D10">
-        <v>1.029046318169166</v>
+        <v>1.03263372431735</v>
       </c>
       <c r="E10">
-        <v>1.023505688723183</v>
+        <v>1.026946274538098</v>
       </c>
       <c r="F10">
-        <v>1.03368164041208</v>
+        <v>1.037286546174651</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048845432138651</v>
+        <v>1.05130808842015</v>
       </c>
       <c r="J10">
-        <v>1.035693790521228</v>
+        <v>1.038936236293755</v>
       </c>
       <c r="K10">
-        <v>1.042910215782062</v>
+        <v>1.046437747293792</v>
       </c>
       <c r="L10">
-        <v>1.037463125506449</v>
+        <v>1.040845472736978</v>
       </c>
       <c r="M10">
-        <v>1.047468274394831</v>
+        <v>1.051013705862446</v>
       </c>
       <c r="N10">
-        <v>1.037164594499506</v>
+        <v>1.040411644916944</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.003192102196849</v>
+        <v>1.008242352659421</v>
       </c>
       <c r="D11">
-        <v>1.025507572842211</v>
+        <v>1.03043431102247</v>
       </c>
       <c r="E11">
-        <v>1.019705044907763</v>
+        <v>1.024601850278938</v>
       </c>
       <c r="F11">
-        <v>1.029796581476805</v>
+        <v>1.03481102841226</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047406843342725</v>
+        <v>1.050406548406624</v>
       </c>
       <c r="J11">
-        <v>1.032432686300772</v>
+        <v>1.037276215142784</v>
       </c>
       <c r="K11">
-        <v>1.039963969045971</v>
+        <v>1.044804231841975</v>
       </c>
       <c r="L11">
-        <v>1.034264680617688</v>
+        <v>1.039074261343461</v>
       </c>
       <c r="M11">
-        <v>1.044177635508529</v>
+        <v>1.049105021207077</v>
       </c>
       <c r="N11">
-        <v>1.033898859137004</v>
+        <v>1.038749266345532</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.001460532349555</v>
+        <v>1.007148335685677</v>
       </c>
       <c r="D12">
-        <v>1.024174714928949</v>
+        <v>1.029610032192868</v>
       </c>
       <c r="E12">
-        <v>1.018273979076865</v>
+        <v>1.023723585459765</v>
       </c>
       <c r="F12">
-        <v>1.028333681603597</v>
+        <v>1.033883550750903</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046862920134641</v>
+        <v>1.05006709184822</v>
       </c>
       <c r="J12">
-        <v>1.031203208189972</v>
+        <v>1.036653216249346</v>
       </c>
       <c r="K12">
-        <v>1.038852972353789</v>
+        <v>1.044191118243451</v>
       </c>
       <c r="L12">
-        <v>1.033059257462033</v>
+        <v>1.038409968353784</v>
       </c>
       <c r="M12">
-        <v>1.042937466169423</v>
+        <v>1.048389165612161</v>
       </c>
       <c r="N12">
-        <v>1.032667635026264</v>
+        <v>1.038125382722207</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.001833134701562</v>
+        <v>1.007383505324032</v>
       </c>
       <c r="D13">
-        <v>1.024461470781704</v>
+        <v>1.029787178984917</v>
       </c>
       <c r="E13">
-        <v>1.018581844444559</v>
+        <v>1.023912318317381</v>
       </c>
       <c r="F13">
-        <v>1.028648397528395</v>
+        <v>1.034082863758459</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04698003549674</v>
+        <v>1.05014011630027</v>
       </c>
       <c r="J13">
-        <v>1.031467777041971</v>
+        <v>1.036787145126303</v>
       </c>
       <c r="K13">
-        <v>1.03909205513878</v>
+        <v>1.044322924708952</v>
       </c>
       <c r="L13">
-        <v>1.033318630274386</v>
+        <v>1.03855275471779</v>
       </c>
       <c r="M13">
-        <v>1.043204315241077</v>
+        <v>1.048543035204638</v>
       </c>
       <c r="N13">
-        <v>1.032932579596378</v>
+        <v>1.038259501793529</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003049496897178</v>
+        <v>1.00815214518633</v>
       </c>
       <c r="D14">
-        <v>1.025397781186322</v>
+        <v>1.030366326969184</v>
       </c>
       <c r="E14">
-        <v>1.019587154850871</v>
+        <v>1.02452940634913</v>
       </c>
       <c r="F14">
-        <v>1.029676069910369</v>
+        <v>1.034734527243274</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047362080888613</v>
+        <v>1.05037858320774</v>
       </c>
       <c r="J14">
-        <v>1.032331434812669</v>
+        <v>1.037224849782501</v>
       </c>
       <c r="K14">
-        <v>1.039872479285565</v>
+        <v>1.04475368272603</v>
       </c>
       <c r="L14">
-        <v>1.034165401293408</v>
+        <v>1.03901948248661</v>
       </c>
       <c r="M14">
-        <v>1.044075494423239</v>
+        <v>1.049045990453647</v>
       </c>
       <c r="N14">
-        <v>1.033797463860173</v>
+        <v>1.038697828040545</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.003795530199267</v>
+        <v>1.008624276500119</v>
       </c>
       <c r="D15">
-        <v>1.025972196139368</v>
+        <v>1.030722180104439</v>
       </c>
       <c r="E15">
-        <v>1.020203957125658</v>
+        <v>1.024908618732415</v>
       </c>
       <c r="F15">
-        <v>1.030306586003208</v>
+        <v>1.03513497330416</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047596187225541</v>
+        <v>1.050524898593629</v>
       </c>
       <c r="J15">
-        <v>1.032861119967924</v>
+        <v>1.037493679151684</v>
       </c>
       <c r="K15">
-        <v>1.040351088153916</v>
+        <v>1.045018237654966</v>
       </c>
       <c r="L15">
-        <v>1.034684786953754</v>
+        <v>1.039306194728024</v>
       </c>
       <c r="M15">
-        <v>1.04460985159638</v>
+        <v>1.049354956979295</v>
       </c>
       <c r="N15">
-        <v>1.034327901229105</v>
+        <v>1.038967039178268</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.008087118833531</v>
+        <v>1.011350484452089</v>
       </c>
       <c r="D16">
-        <v>1.029278658620779</v>
+        <v>1.032778682591733</v>
       </c>
       <c r="E16">
-        <v>1.023755285915734</v>
+        <v>1.027100840704343</v>
       </c>
       <c r="F16">
-        <v>1.033936774170184</v>
+        <v>1.037449740991472</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048939595037816</v>
+        <v>1.051367285873635</v>
       </c>
       <c r="J16">
-        <v>1.03590773909977</v>
+        <v>1.03904552401224</v>
       </c>
       <c r="K16">
-        <v>1.043103475463311</v>
+        <v>1.046545280918514</v>
       </c>
       <c r="L16">
-        <v>1.037673022213695</v>
+        <v>1.040962141013103</v>
       </c>
       <c r="M16">
-        <v>1.047684220773255</v>
+        <v>1.05113942882362</v>
       </c>
       <c r="N16">
-        <v>1.03737884690957</v>
+        <v>1.040521087836524</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.010735957288552</v>
+        <v>1.013041771916257</v>
       </c>
       <c r="D17">
-        <v>1.031321213782253</v>
+        <v>1.034055957554435</v>
       </c>
       <c r="E17">
-        <v>1.02594989209336</v>
+        <v>1.028463053382839</v>
       </c>
       <c r="F17">
-        <v>1.03618001959233</v>
+        <v>1.038887921535309</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049765815192008</v>
+        <v>1.051887681628672</v>
       </c>
       <c r="J17">
-        <v>1.037787729632007</v>
+        <v>1.040007837722171</v>
       </c>
       <c r="K17">
-        <v>1.044801485815115</v>
+        <v>1.047492096810487</v>
       </c>
       <c r="L17">
-        <v>1.039517726136475</v>
+        <v>1.04198977216701</v>
       </c>
       <c r="M17">
-        <v>1.049582087226281</v>
+        <v>1.052246811135518</v>
       </c>
       <c r="N17">
-        <v>1.039261507244001</v>
+        <v>1.041484768142303</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.012265975878851</v>
+        <v>1.014021657683304</v>
       </c>
       <c r="D18">
-        <v>1.032501623245313</v>
+        <v>1.034796483720696</v>
       </c>
       <c r="E18">
-        <v>1.02721846281374</v>
+        <v>1.029253058434168</v>
       </c>
       <c r="F18">
-        <v>1.037476670024339</v>
+        <v>1.039721919010429</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050241969591615</v>
+        <v>1.05218837846791</v>
       </c>
       <c r="J18">
-        <v>1.038873466279929</v>
+        <v>1.040565212554385</v>
       </c>
       <c r="K18">
-        <v>1.04578196715345</v>
+        <v>1.048040450154649</v>
       </c>
       <c r="L18">
-        <v>1.040583346585422</v>
+        <v>1.042585253320504</v>
       </c>
       <c r="M18">
-        <v>1.050678411571293</v>
+        <v>1.052888502130989</v>
       </c>
       <c r="N18">
-        <v>1.040348785762499</v>
+        <v>1.04204293451071</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012785177942727</v>
+        <v>1.014354666253679</v>
       </c>
       <c r="D19">
-        <v>1.032902284399208</v>
+        <v>1.035048231815468</v>
       </c>
       <c r="E19">
-        <v>1.027649097938384</v>
+        <v>1.029521667333064</v>
       </c>
       <c r="F19">
-        <v>1.037916830965425</v>
+        <v>1.04000547480788</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050403363243446</v>
+        <v>1.052290430657784</v>
       </c>
       <c r="J19">
-        <v>1.039241871060176</v>
+        <v>1.040754604378301</v>
       </c>
       <c r="K19">
-        <v>1.04611462997723</v>
+        <v>1.048226768651302</v>
       </c>
       <c r="L19">
-        <v>1.040944969865142</v>
+        <v>1.042787639872496</v>
       </c>
       <c r="M19">
-        <v>1.051050453059916</v>
+        <v>1.053106593389033</v>
       </c>
       <c r="N19">
-        <v>1.04071771371979</v>
+        <v>1.04223259529274</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.010453325988935</v>
+        <v>1.012861000354451</v>
       </c>
       <c r="D20">
-        <v>1.031103210692206</v>
+        <v>1.033919384234553</v>
       </c>
       <c r="E20">
-        <v>1.025715630590429</v>
+        <v>1.028317373800488</v>
       </c>
       <c r="F20">
-        <v>1.035940569792811</v>
+        <v>1.038734124395494</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049677769647844</v>
+        <v>1.051832142986628</v>
       </c>
       <c r="J20">
-        <v>1.037587152707046</v>
+        <v>1.039904998475343</v>
       </c>
       <c r="K20">
-        <v>1.044620340631908</v>
+        <v>1.047390918384239</v>
       </c>
       <c r="L20">
-        <v>1.039320886601401</v>
+        <v>1.041879924207414</v>
       </c>
       <c r="M20">
-        <v>1.049379575558814</v>
+        <v>1.052128438580524</v>
       </c>
       <c r="N20">
-        <v>1.0390606454768</v>
+        <v>1.041381782851948</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.00269202181544</v>
+        <v>1.007926103553531</v>
       </c>
       <c r="D21">
-        <v>1.025122579376095</v>
+        <v>1.030195986847002</v>
       </c>
       <c r="E21">
-        <v>1.019291660663676</v>
+        <v>1.02434789738158</v>
       </c>
       <c r="F21">
-        <v>1.02937400408377</v>
+        <v>1.034542851163592</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047249846649042</v>
+        <v>1.050308488402705</v>
       </c>
       <c r="J21">
-        <v>1.032077620298976</v>
+        <v>1.037096135244494</v>
       </c>
       <c r="K21">
-        <v>1.039643131690556</v>
+        <v>1.044627012610699</v>
       </c>
       <c r="L21">
-        <v>1.03391653753848</v>
+        <v>1.038882221212486</v>
       </c>
       <c r="M21">
-        <v>1.04381945710981</v>
+        <v>1.048898075010459</v>
       </c>
       <c r="N21">
-        <v>1.033543288900758</v>
+        <v>1.038568930713131</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9976648076964003</v>
+        <v>1.004760296316143</v>
       </c>
       <c r="D22">
-        <v>1.021255133770414</v>
+        <v>1.027812434246347</v>
       </c>
       <c r="E22">
-        <v>1.015140052162816</v>
+        <v>1.021808905488171</v>
       </c>
       <c r="F22">
-        <v>1.025129958540708</v>
+        <v>1.031861393564898</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045667662116115</v>
+        <v>1.049323904398428</v>
       </c>
       <c r="J22">
-        <v>1.028507837859685</v>
+        <v>1.035292967680287</v>
       </c>
       <c r="K22">
-        <v>1.036416963389402</v>
+        <v>1.04285234816232</v>
       </c>
       <c r="L22">
-        <v>1.030417432164216</v>
+        <v>1.036960360209948</v>
       </c>
       <c r="M22">
-        <v>1.040219500152438</v>
+        <v>1.046827034956689</v>
       </c>
       <c r="N22">
-        <v>1.029968436960943</v>
+        <v>1.036763202444156</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.00034442519385</v>
+        <v>1.006444699963997</v>
       </c>
       <c r="D23">
-        <v>1.023315924286327</v>
+        <v>1.029080133959876</v>
       </c>
       <c r="E23">
-        <v>1.017352030620844</v>
+        <v>1.023159081958534</v>
       </c>
       <c r="F23">
-        <v>1.027391211525471</v>
+        <v>1.033287386695308</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046511873489143</v>
+        <v>1.049848422993534</v>
       </c>
       <c r="J23">
-        <v>1.030410686444067</v>
+        <v>1.036252467599959</v>
       </c>
       <c r="K23">
-        <v>1.038136763817353</v>
+        <v>1.043796711915368</v>
       </c>
       <c r="L23">
-        <v>1.032282364849073</v>
+        <v>1.037982779781338</v>
       </c>
       <c r="M23">
-        <v>1.042138180770124</v>
+        <v>1.04792881790482</v>
       </c>
       <c r="N23">
-        <v>1.031873987808575</v>
+        <v>1.03772406496377</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.010581081145862</v>
+        <v>1.012942703644275</v>
       </c>
       <c r="D24">
-        <v>1.0312017507442</v>
+        <v>1.033981109683169</v>
       </c>
       <c r="E24">
-        <v>1.025821518742587</v>
+        <v>1.02838321417298</v>
       </c>
       <c r="F24">
-        <v>1.03604880320963</v>
+        <v>1.038803633725078</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049717571418381</v>
+        <v>1.051857247278126</v>
       </c>
       <c r="J24">
-        <v>1.03767781816779</v>
+        <v>1.039951479220358</v>
       </c>
       <c r="K24">
-        <v>1.044702222982073</v>
+        <v>1.047436648620686</v>
       </c>
       <c r="L24">
-        <v>1.039409861860515</v>
+        <v>1.041929571863792</v>
       </c>
       <c r="M24">
-        <v>1.049471114750919</v>
+        <v>1.052181939084123</v>
       </c>
       <c r="N24">
-        <v>1.039151439692898</v>
+        <v>1.041428329604953</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021876428699235</v>
+        <v>1.020225368409204</v>
       </c>
       <c r="D25">
-        <v>1.039925481758319</v>
+        <v>1.039493345833665</v>
       </c>
       <c r="E25">
-        <v>1.035202127271778</v>
+        <v>1.034268015641363</v>
       </c>
       <c r="F25">
-        <v>1.045636357761499</v>
+        <v>1.045014995143571</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053212911561998</v>
+        <v>1.054077367982706</v>
       </c>
       <c r="J25">
-        <v>1.045689345285446</v>
+        <v>1.0440907267337</v>
       </c>
       <c r="K25">
-        <v>1.051934082046527</v>
+        <v>1.051508022486082</v>
       </c>
       <c r="L25">
-        <v>1.047277491964424</v>
+        <v>1.046356675333721</v>
       </c>
       <c r="M25">
-        <v>1.057565251145947</v>
+        <v>1.056952507627737</v>
       </c>
       <c r="N25">
-        <v>1.047174344097996</v>
+        <v>1.045573455324541</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_42/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025842792350584</v>
+        <v>1.016121964314964</v>
       </c>
       <c r="D2">
-        <v>1.043758861220466</v>
+        <v>1.034258620075814</v>
       </c>
       <c r="E2">
-        <v>1.038829426664533</v>
+        <v>1.030452135323445</v>
       </c>
       <c r="F2">
-        <v>1.049827559926405</v>
+        <v>1.041427578009875</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055763491267702</v>
+        <v>1.05059143628717</v>
       </c>
       <c r="J2">
-        <v>1.04727709852006</v>
+        <v>1.037830935296401</v>
       </c>
       <c r="K2">
-        <v>1.054640455885848</v>
+        <v>1.045260450610172</v>
       </c>
       <c r="L2">
-        <v>1.049773066029858</v>
+        <v>1.041502919251325</v>
       </c>
       <c r="M2">
-        <v>1.060633766555475</v>
+        <v>1.052338424233421</v>
       </c>
       <c r="N2">
-        <v>1.048764352124321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.016442858822627</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.049994681092347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029818315874002</v>
+        <v>1.019365577834627</v>
       </c>
       <c r="D3">
-        <v>1.046784677782248</v>
+        <v>1.036509421405676</v>
       </c>
       <c r="E3">
-        <v>1.042069684294893</v>
+        <v>1.032929633324573</v>
       </c>
       <c r="F3">
-        <v>1.053245104260921</v>
+        <v>1.04381338957491</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056940911352884</v>
+        <v>1.051326586992214</v>
       </c>
       <c r="J3">
-        <v>1.049527840382712</v>
+        <v>1.039341887015111</v>
       </c>
       <c r="K3">
-        <v>1.056851989856716</v>
+        <v>1.046695533606345</v>
       </c>
       <c r="L3">
-        <v>1.052191150690992</v>
+        <v>1.043157821551292</v>
       </c>
       <c r="M3">
-        <v>1.063239184728697</v>
+        <v>1.053914758153097</v>
       </c>
       <c r="N3">
-        <v>1.051018290298581</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.01695239511662</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.051242226504785</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03234534114181</v>
+        <v>1.021431580036318</v>
       </c>
       <c r="D4">
-        <v>1.048711020431705</v>
+        <v>1.037946303826513</v>
       </c>
       <c r="E4">
-        <v>1.044134698390089</v>
+        <v>1.03451318804759</v>
       </c>
       <c r="F4">
-        <v>1.055422588008841</v>
+        <v>1.045338637331921</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057681786668385</v>
+        <v>1.051787641286687</v>
       </c>
       <c r="J4">
-        <v>1.050956340541364</v>
+        <v>1.040302509783244</v>
       </c>
       <c r="K4">
-        <v>1.058255051319853</v>
+        <v>1.047607345273849</v>
       </c>
       <c r="L4">
-        <v>1.053728111410733</v>
+        <v>1.044212176557151</v>
       </c>
       <c r="M4">
-        <v>1.064895143449289</v>
+        <v>1.054919007502942</v>
       </c>
       <c r="N4">
-        <v>1.052448819091309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.017276252012067</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.052037010494171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033397164898816</v>
+        <v>1.022292462579757</v>
       </c>
       <c r="D5">
-        <v>1.04951350175239</v>
+        <v>1.038545785052632</v>
       </c>
       <c r="E5">
-        <v>1.044995470919359</v>
+        <v>1.035174337801696</v>
       </c>
       <c r="F5">
-        <v>1.056330119140107</v>
+        <v>1.045975510524287</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057988321052492</v>
+        <v>1.05197800508886</v>
       </c>
       <c r="J5">
-        <v>1.05155037632311</v>
+        <v>1.040702345655612</v>
       </c>
       <c r="K5">
-        <v>1.058838369471861</v>
+        <v>1.047986720650226</v>
       </c>
       <c r="L5">
-        <v>1.054367790603302</v>
+        <v>1.04465155820192</v>
       </c>
       <c r="M5">
-        <v>1.065584330383711</v>
+        <v>1.055337494481365</v>
       </c>
       <c r="N5">
-        <v>1.053043698472002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.017411025922796</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.052368209614159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033573162205501</v>
+        <v>1.022436564638384</v>
       </c>
       <c r="D6">
-        <v>1.049647816463729</v>
+        <v>1.038646174420139</v>
       </c>
       <c r="E6">
-        <v>1.045139573022587</v>
+        <v>1.035285082347129</v>
       </c>
       <c r="F6">
-        <v>1.056482041915221</v>
+        <v>1.046082192505411</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0580395031794</v>
+        <v>1.052009766069918</v>
       </c>
       <c r="J6">
-        <v>1.051649740831444</v>
+        <v>1.040769246852644</v>
       </c>
       <c r="K6">
-        <v>1.058935932890956</v>
+        <v>1.048050189724598</v>
       </c>
       <c r="L6">
-        <v>1.054474821684202</v>
+        <v>1.044725107571791</v>
       </c>
       <c r="M6">
-        <v>1.065699643945667</v>
+        <v>1.055407545334124</v>
       </c>
       <c r="N6">
-        <v>1.053143204089336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01743357508437</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.052423649271834</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032359436637403</v>
+        <v>1.021443113053284</v>
       </c>
       <c r="D7">
-        <v>1.048721771855054</v>
+        <v>1.037954332014575</v>
       </c>
       <c r="E7">
-        <v>1.044146228709396</v>
+        <v>1.034522040209442</v>
       </c>
       <c r="F7">
-        <v>1.055434745157935</v>
+        <v>1.045347164194217</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057685901840378</v>
+        <v>1.051790198492466</v>
       </c>
       <c r="J7">
-        <v>1.05096430342003</v>
+        <v>1.040307868067557</v>
       </c>
       <c r="K7">
-        <v>1.058262871088906</v>
+        <v>1.047612429939299</v>
       </c>
       <c r="L7">
-        <v>1.053736683990738</v>
+        <v>1.044218062700501</v>
       </c>
       <c r="M7">
-        <v>1.064904379577535</v>
+        <v>1.054924613791285</v>
       </c>
       <c r="N7">
-        <v>1.052456793278178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.017278058240721</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.052041447425939</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027195944883969</v>
+        <v>1.017225076734242</v>
       </c>
       <c r="D8">
-        <v>1.044788110306274</v>
+        <v>1.035023391012293</v>
       </c>
       <c r="E8">
-        <v>1.039931173798443</v>
+        <v>1.031293529541633</v>
       </c>
       <c r="F8">
-        <v>1.050989695868947</v>
+        <v>1.042237769849407</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056165812283735</v>
+        <v>1.050842939730552</v>
       </c>
       <c r="J8">
-        <v>1.048043624024207</v>
+        <v>1.03834514785258</v>
       </c>
       <c r="K8">
-        <v>1.055393740908541</v>
+        <v>1.045748960128649</v>
       </c>
       <c r="L8">
-        <v>1.050596111163836</v>
+        <v>1.042065659283914</v>
       </c>
       <c r="M8">
-        <v>1.061520588997577</v>
+        <v>1.052874456302705</v>
       </c>
       <c r="N8">
-        <v>1.049531966182605</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.016616284595606</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.050418908921741</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.017733832360095</v>
+        <v>1.009531787660535</v>
       </c>
       <c r="D9">
-        <v>1.037605226894559</v>
+        <v>1.029704752293967</v>
       </c>
       <c r="E9">
-        <v>1.032251107156034</v>
+        <v>1.025449898460284</v>
       </c>
       <c r="F9">
-        <v>1.042886475581981</v>
+        <v>1.036612251548576</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053321885777536</v>
+        <v>1.04905973430853</v>
       </c>
       <c r="J9">
-        <v>1.042675538478111</v>
+        <v>1.034752386398993</v>
       </c>
       <c r="K9">
-        <v>1.05011628807037</v>
+        <v>1.042333597444237</v>
       </c>
       <c r="L9">
-        <v>1.044841739541253</v>
+        <v>1.038143135375226</v>
       </c>
       <c r="M9">
-        <v>1.05532006397948</v>
+        <v>1.049137991109887</v>
       </c>
       <c r="N9">
-        <v>1.044156257339306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.015404238629473</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.047461781340903</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.011158446510624</v>
+        <v>1.004258969904766</v>
       </c>
       <c r="D10">
-        <v>1.03263372431735</v>
+        <v>1.026097374512135</v>
       </c>
       <c r="E10">
-        <v>1.026946274538098</v>
+        <v>1.021497627044272</v>
       </c>
       <c r="F10">
-        <v>1.037286546174651</v>
+        <v>1.032840963965539</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05130808842015</v>
+        <v>1.047820274929169</v>
       </c>
       <c r="J10">
-        <v>1.038936236293755</v>
+        <v>1.032304623999398</v>
       </c>
       <c r="K10">
-        <v>1.046437747293792</v>
+        <v>1.04001089516518</v>
       </c>
       <c r="L10">
-        <v>1.040845472736978</v>
+        <v>1.035489288382628</v>
       </c>
       <c r="M10">
-        <v>1.051013705862446</v>
+        <v>1.046641544427932</v>
       </c>
       <c r="N10">
-        <v>1.040411644916944</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.014581027761182</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.045537028923723</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.008242352659421</v>
+        <v>1.002288555599325</v>
       </c>
       <c r="D11">
-        <v>1.03043431102247</v>
+        <v>1.024896564562946</v>
       </c>
       <c r="E11">
-        <v>1.024601850278938</v>
+        <v>1.020196405396701</v>
       </c>
       <c r="F11">
-        <v>1.03481102841226</v>
+        <v>1.031852147745625</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050406548406624</v>
+        <v>1.047496894861869</v>
       </c>
       <c r="J11">
-        <v>1.037276215142784</v>
+        <v>1.031566436930856</v>
       </c>
       <c r="K11">
-        <v>1.044804231841975</v>
+        <v>1.039363760500942</v>
       </c>
       <c r="L11">
-        <v>1.039074261343461</v>
+        <v>1.034747239629932</v>
       </c>
       <c r="M11">
-        <v>1.049105021207077</v>
+        <v>1.046197380398482</v>
       </c>
       <c r="N11">
-        <v>1.038749266345532</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.014358161924254</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.045618169107318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.007148335685677</v>
+        <v>1.001689648263248</v>
       </c>
       <c r="D12">
-        <v>1.029610032192868</v>
+        <v>1.024596415659</v>
       </c>
       <c r="E12">
-        <v>1.023723585459765</v>
+        <v>1.019876417124115</v>
       </c>
       <c r="F12">
-        <v>1.033883550750903</v>
+        <v>1.031733432250579</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.05006709184822</v>
+        <v>1.047464317277173</v>
       </c>
       <c r="J12">
-        <v>1.036653216249346</v>
+        <v>1.031422670885674</v>
       </c>
       <c r="K12">
-        <v>1.044191118243451</v>
+        <v>1.039267086075202</v>
       </c>
       <c r="L12">
-        <v>1.038409968353784</v>
+        <v>1.034632472888074</v>
       </c>
       <c r="M12">
-        <v>1.048389165612161</v>
+        <v>1.046276917290964</v>
       </c>
       <c r="N12">
-        <v>1.038125382722207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.014331063190488</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.046005042570831</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.007383505324032</v>
+        <v>1.00210703278573</v>
       </c>
       <c r="D13">
-        <v>1.029787178984917</v>
+        <v>1.02497065405272</v>
       </c>
       <c r="E13">
-        <v>1.023912318317381</v>
+        <v>1.020291554183981</v>
       </c>
       <c r="F13">
-        <v>1.034082863758459</v>
+        <v>1.032284769990682</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.05014011630027</v>
+        <v>1.04765814456943</v>
       </c>
       <c r="J13">
-        <v>1.036787145126303</v>
+        <v>1.031730190221483</v>
       </c>
       <c r="K13">
-        <v>1.044322924708952</v>
+        <v>1.039592115682866</v>
       </c>
       <c r="L13">
-        <v>1.03855275471779</v>
+        <v>1.034997294017885</v>
       </c>
       <c r="M13">
-        <v>1.048543035204638</v>
+        <v>1.046776476225128</v>
       </c>
       <c r="N13">
-        <v>1.038259501793529</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.014453912247832</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.046674876147335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.00815214518633</v>
+        <v>1.002859425065145</v>
       </c>
       <c r="D14">
-        <v>1.030366326969184</v>
+        <v>1.025537666898969</v>
       </c>
       <c r="E14">
-        <v>1.02452940634913</v>
+        <v>1.020914648644209</v>
       </c>
       <c r="F14">
-        <v>1.034734527243274</v>
+        <v>1.032973884379372</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.05037858320774</v>
+        <v>1.047895769342064</v>
       </c>
       <c r="J14">
-        <v>1.037224849782501</v>
+        <v>1.032149215332766</v>
       </c>
       <c r="K14">
-        <v>1.04475368272603</v>
+        <v>1.040009890922801</v>
       </c>
       <c r="L14">
-        <v>1.03901948248661</v>
+        <v>1.035469103550973</v>
       </c>
       <c r="M14">
-        <v>1.049045990453647</v>
+        <v>1.047315836837732</v>
       </c>
       <c r="N14">
-        <v>1.038697828040545</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.014607566192119</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.047273549696003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.008624276500119</v>
+        <v>1.003265387040534</v>
       </c>
       <c r="D15">
-        <v>1.030722180104439</v>
+        <v>1.025825894889624</v>
       </c>
       <c r="E15">
-        <v>1.024908618732415</v>
+        <v>1.021230566547902</v>
       </c>
       <c r="F15">
-        <v>1.03513497330416</v>
+        <v>1.033296238677487</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050524898593629</v>
+        <v>1.048005129816864</v>
       </c>
       <c r="J15">
-        <v>1.037493679151684</v>
+        <v>1.032352679444787</v>
       </c>
       <c r="K15">
-        <v>1.045018237654966</v>
+        <v>1.040207354016147</v>
       </c>
       <c r="L15">
-        <v>1.039306194728024</v>
+        <v>1.035693144564499</v>
       </c>
       <c r="M15">
-        <v>1.049354956979295</v>
+        <v>1.047547818914825</v>
       </c>
       <c r="N15">
-        <v>1.038967039178268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.014678727996561</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.04749424653048</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.011350484452089</v>
+        <v>1.005411803673731</v>
       </c>
       <c r="D16">
-        <v>1.032778682591733</v>
+        <v>1.027279623663258</v>
       </c>
       <c r="E16">
-        <v>1.027100840704343</v>
+        <v>1.022821943574953</v>
       </c>
       <c r="F16">
-        <v>1.037449740991472</v>
+        <v>1.034804480081182</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051367285873635</v>
+        <v>1.048504795316317</v>
       </c>
       <c r="J16">
-        <v>1.03904552401224</v>
+        <v>1.033336235077533</v>
       </c>
       <c r="K16">
-        <v>1.046545280918514</v>
+        <v>1.041137921431552</v>
       </c>
       <c r="L16">
-        <v>1.040962141013103</v>
+        <v>1.036755509404505</v>
       </c>
       <c r="M16">
-        <v>1.05113942882362</v>
+        <v>1.048537613299412</v>
       </c>
       <c r="N16">
-        <v>1.040521087836524</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.01500576694031</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.048238073436779</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.013041771916257</v>
+        <v>1.006665583098474</v>
       </c>
       <c r="D17">
-        <v>1.034055957554435</v>
+        <v>1.028098380888103</v>
       </c>
       <c r="E17">
-        <v>1.028463053382839</v>
+        <v>1.023717180181555</v>
       </c>
       <c r="F17">
-        <v>1.038887921535309</v>
+        <v>1.035597369456049</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051887681628672</v>
+        <v>1.048761026305563</v>
       </c>
       <c r="J17">
-        <v>1.040007837722171</v>
+        <v>1.033870000848677</v>
       </c>
       <c r="K17">
-        <v>1.047492096810487</v>
+        <v>1.041631049683277</v>
       </c>
       <c r="L17">
-        <v>1.04198977216701</v>
+        <v>1.037321759224662</v>
       </c>
       <c r="M17">
-        <v>1.052246811135518</v>
+        <v>1.049008765416451</v>
       </c>
       <c r="N17">
-        <v>1.041484768142303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.015175586693026</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.048482191238898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014021657683304</v>
+        <v>1.007265174277307</v>
       </c>
       <c r="D18">
-        <v>1.034796483720696</v>
+        <v>1.028436006203118</v>
       </c>
       <c r="E18">
-        <v>1.029253058434168</v>
+        <v>1.024082842508091</v>
       </c>
       <c r="F18">
-        <v>1.039721919010429</v>
+        <v>1.035820260175479</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05218837846791</v>
+        <v>1.048825798021915</v>
       </c>
       <c r="J18">
-        <v>1.040565212554385</v>
+        <v>1.034056494176357</v>
       </c>
       <c r="K18">
-        <v>1.048040450154649</v>
+        <v>1.04178130834679</v>
       </c>
       <c r="L18">
-        <v>1.042585253320504</v>
+        <v>1.037498431449515</v>
       </c>
       <c r="M18">
-        <v>1.052888502130989</v>
+        <v>1.04904806455059</v>
       </c>
       <c r="N18">
-        <v>1.04204293451071</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.015222188428754</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.048277121443983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.014354666253679</v>
+        <v>1.007270636530218</v>
       </c>
       <c r="D19">
-        <v>1.035048231815468</v>
+        <v>1.028336202350766</v>
       </c>
       <c r="E19">
-        <v>1.029521667333064</v>
+        <v>1.023965771093219</v>
       </c>
       <c r="F19">
-        <v>1.04000547480788</v>
+        <v>1.035523252129311</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052290430657784</v>
+        <v>1.048718684031932</v>
       </c>
       <c r="J19">
-        <v>1.040754604378301</v>
+        <v>1.033928715463956</v>
       </c>
       <c r="K19">
-        <v>1.048226768651302</v>
+        <v>1.04162108704192</v>
       </c>
       <c r="L19">
-        <v>1.042787639872496</v>
+        <v>1.037320864414112</v>
       </c>
       <c r="M19">
-        <v>1.053106593389033</v>
+        <v>1.048694329399118</v>
       </c>
       <c r="N19">
-        <v>1.04223259529274</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.015158806542473</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.047674344527806</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.012861000354451</v>
+        <v>1.005623928718089</v>
       </c>
       <c r="D20">
-        <v>1.033919384234553</v>
+        <v>1.027030442458164</v>
       </c>
       <c r="E20">
-        <v>1.028317373800488</v>
+        <v>1.022519316100289</v>
       </c>
       <c r="F20">
-        <v>1.038734124395494</v>
+        <v>1.033817343664663</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051832142986628</v>
+        <v>1.048144503948341</v>
       </c>
       <c r="J20">
-        <v>1.039904998475343</v>
+        <v>1.032939765587783</v>
       </c>
       <c r="K20">
-        <v>1.047390918384239</v>
+        <v>1.040614082073221</v>
       </c>
       <c r="L20">
-        <v>1.041879924207414</v>
+        <v>1.036177420187912</v>
       </c>
       <c r="M20">
-        <v>1.052128438580524</v>
+        <v>1.047290524354765</v>
       </c>
       <c r="N20">
-        <v>1.041381782851948</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.014794776983747</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.046040163661556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.007926103553531</v>
+        <v>1.001609648845217</v>
       </c>
       <c r="D21">
-        <v>1.030195986847002</v>
+        <v>1.024264611577782</v>
       </c>
       <c r="E21">
-        <v>1.02434789738158</v>
+        <v>1.019489659906128</v>
       </c>
       <c r="F21">
-        <v>1.034542851163592</v>
+        <v>1.030878008117516</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050308488402705</v>
+        <v>1.047160942585638</v>
       </c>
       <c r="J21">
-        <v>1.037096135244494</v>
+        <v>1.031040225120981</v>
       </c>
       <c r="K21">
-        <v>1.044627012610699</v>
+        <v>1.038800417589533</v>
       </c>
       <c r="L21">
-        <v>1.038882221212486</v>
+        <v>1.034110968814085</v>
       </c>
       <c r="M21">
-        <v>1.048898075010459</v>
+        <v>1.045297085817227</v>
       </c>
       <c r="N21">
-        <v>1.038568930713131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.014151295169488</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.044421985045492</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.004760296316143</v>
+        <v>0.9990643790679957</v>
       </c>
       <c r="D22">
-        <v>1.027812434246347</v>
+        <v>1.022524728547184</v>
       </c>
       <c r="E22">
-        <v>1.021808905488171</v>
+        <v>1.017586529604487</v>
       </c>
       <c r="F22">
-        <v>1.031861393564898</v>
+        <v>1.029047828574738</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049323904398428</v>
+        <v>1.046539467248232</v>
       </c>
       <c r="J22">
-        <v>1.035292967680287</v>
+        <v>1.029845692346408</v>
       </c>
       <c r="K22">
-        <v>1.04285234816232</v>
+        <v>1.037662794078013</v>
       </c>
       <c r="L22">
-        <v>1.036960360209948</v>
+        <v>1.032817463201384</v>
       </c>
       <c r="M22">
-        <v>1.046827034956689</v>
+        <v>1.044065000183208</v>
       </c>
       <c r="N22">
-        <v>1.036763202444156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.013748025295014</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.043446876492157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.006444699963997</v>
+        <v>1.000417878252441</v>
       </c>
       <c r="D23">
-        <v>1.029080133959876</v>
+        <v>1.023449463085697</v>
       </c>
       <c r="E23">
-        <v>1.023159081958534</v>
+        <v>1.01859785595092</v>
       </c>
       <c r="F23">
-        <v>1.033287386695308</v>
+        <v>1.03002034001742</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049848422993534</v>
+        <v>1.04687058605571</v>
       </c>
       <c r="J23">
-        <v>1.036252467599959</v>
+        <v>1.03048100024833</v>
       </c>
       <c r="K23">
-        <v>1.043796711915368</v>
+        <v>1.038267869906612</v>
       </c>
       <c r="L23">
-        <v>1.037982779781338</v>
+        <v>1.03350517925379</v>
       </c>
       <c r="M23">
-        <v>1.04792881790482</v>
+        <v>1.044720055541628</v>
       </c>
       <c r="N23">
-        <v>1.03772406496377</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.013962506913221</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.043965306595629</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.012942703644275</v>
+        <v>1.005654942891959</v>
       </c>
       <c r="D24">
-        <v>1.033981109683169</v>
+        <v>1.02703784916</v>
       </c>
       <c r="E24">
-        <v>1.02838321417298</v>
+        <v>1.022526098242752</v>
       </c>
       <c r="F24">
-        <v>1.038803633725078</v>
+        <v>1.033798853371496</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051857247278126</v>
+        <v>1.048137648632044</v>
       </c>
       <c r="J24">
-        <v>1.039951479220358</v>
+        <v>1.032937034820109</v>
       </c>
       <c r="K24">
-        <v>1.047436648620686</v>
+        <v>1.040606223407987</v>
       </c>
       <c r="L24">
-        <v>1.041929571863792</v>
+        <v>1.036168850609185</v>
       </c>
       <c r="M24">
-        <v>1.052181939084123</v>
+        <v>1.047257329308893</v>
       </c>
       <c r="N24">
-        <v>1.041428329604953</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.014791573731057</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.045973376314373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.020225368409204</v>
+        <v>1.011552894136879</v>
       </c>
       <c r="D25">
-        <v>1.039493345833665</v>
+        <v>1.031098620022027</v>
       </c>
       <c r="E25">
-        <v>1.034268015641363</v>
+        <v>1.026979639565917</v>
       </c>
       <c r="F25">
-        <v>1.045014995143571</v>
+        <v>1.038084573410138</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054077367982706</v>
+        <v>1.049534526093804</v>
       </c>
       <c r="J25">
-        <v>1.0440907267337</v>
+        <v>1.035697615868528</v>
       </c>
       <c r="K25">
-        <v>1.051508022486082</v>
+        <v>1.043232616329477</v>
       </c>
       <c r="L25">
-        <v>1.046356675333721</v>
+        <v>1.03917308591015</v>
       </c>
       <c r="M25">
-        <v>1.056952507627737</v>
+        <v>1.050119103537406</v>
       </c>
       <c r="N25">
-        <v>1.045573455324541</v>
+        <v>1.015723188321173</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.048238258232715</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_42/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016121964314964</v>
+        <v>1.015273754079123</v>
       </c>
       <c r="D2">
-        <v>1.034258620075814</v>
+        <v>1.032753240121497</v>
       </c>
       <c r="E2">
-        <v>1.030452135323445</v>
+        <v>1.029660514988724</v>
       </c>
       <c r="F2">
-        <v>1.041427578009875</v>
+        <v>1.040483824824518</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.05059143628717</v>
+        <v>1.04992360398773</v>
       </c>
       <c r="J2">
-        <v>1.037830935296401</v>
+        <v>1.037007033208217</v>
       </c>
       <c r="K2">
-        <v>1.045260450610172</v>
+        <v>1.043774376697127</v>
       </c>
       <c r="L2">
-        <v>1.041502919251325</v>
+        <v>1.040721536459708</v>
       </c>
       <c r="M2">
-        <v>1.052338424233421</v>
+        <v>1.051406559205943</v>
       </c>
       <c r="N2">
-        <v>1.016442858822627</v>
+        <v>1.016963428675331</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.049994681092347</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.049257181587149</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02365864012053</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019365577834627</v>
+        <v>1.018406778198937</v>
       </c>
       <c r="D3">
-        <v>1.036509421405676</v>
+        <v>1.034849280548475</v>
       </c>
       <c r="E3">
-        <v>1.032929633324573</v>
+        <v>1.032037645874886</v>
       </c>
       <c r="F3">
-        <v>1.04381338957491</v>
+        <v>1.042763841837853</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.051326586992214</v>
+        <v>1.050581885710533</v>
       </c>
       <c r="J3">
-        <v>1.039341887015111</v>
+        <v>1.038407930230748</v>
       </c>
       <c r="K3">
-        <v>1.046695533606345</v>
+        <v>1.045054860869867</v>
       </c>
       <c r="L3">
-        <v>1.043157821551292</v>
+        <v>1.042276374588989</v>
       </c>
       <c r="M3">
-        <v>1.053914758153097</v>
+        <v>1.052877297479237</v>
       </c>
       <c r="N3">
-        <v>1.01695239511662</v>
+        <v>1.017338841505725</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.051242226504785</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.050421157492075</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023903323141837</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021431580036318</v>
+        <v>1.020402928696198</v>
       </c>
       <c r="D4">
-        <v>1.037946303826513</v>
+        <v>1.036187944831085</v>
       </c>
       <c r="E4">
-        <v>1.03451318804759</v>
+        <v>1.033557707802993</v>
       </c>
       <c r="F4">
-        <v>1.045338637331921</v>
+        <v>1.044222074923611</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.051787641286687</v>
+        <v>1.050994122808755</v>
       </c>
       <c r="J4">
-        <v>1.040302509783244</v>
+        <v>1.039298743044215</v>
       </c>
       <c r="K4">
-        <v>1.047607345273849</v>
+        <v>1.045868383231229</v>
       </c>
       <c r="L4">
-        <v>1.044212176557151</v>
+        <v>1.043267312628441</v>
       </c>
       <c r="M4">
-        <v>1.054919007502942</v>
+        <v>1.053814540110633</v>
       </c>
       <c r="N4">
-        <v>1.017276252012067</v>
+        <v>1.017577519699773</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.052037010494171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.051162911798708</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024056408666401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022292462579757</v>
+        <v>1.021234837538168</v>
       </c>
       <c r="D5">
-        <v>1.038545785052632</v>
+        <v>1.0367465806648</v>
       </c>
       <c r="E5">
-        <v>1.035174337801696</v>
+        <v>1.034192500676263</v>
       </c>
       <c r="F5">
-        <v>1.045975510524287</v>
+        <v>1.044831108291932</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.05197800508886</v>
+        <v>1.051164178022908</v>
       </c>
       <c r="J5">
-        <v>1.040702345655612</v>
+        <v>1.039669556414204</v>
       </c>
       <c r="K5">
-        <v>1.047986720650226</v>
+        <v>1.046206843994768</v>
       </c>
       <c r="L5">
-        <v>1.04465155820192</v>
+        <v>1.043680342532606</v>
       </c>
       <c r="M5">
-        <v>1.055337494481365</v>
+        <v>1.054205163704679</v>
       </c>
       <c r="N5">
-        <v>1.017411025922796</v>
+        <v>1.017676861885672</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.052368209614159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.051472059633137</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024119525180421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022436564638384</v>
+        <v>1.021374097297377</v>
       </c>
       <c r="D6">
-        <v>1.038646174420139</v>
+        <v>1.036840137617801</v>
       </c>
       <c r="E6">
-        <v>1.035285082347129</v>
+        <v>1.034298839119011</v>
       </c>
       <c r="F6">
-        <v>1.046082192505411</v>
+        <v>1.044933135040917</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.052009766069918</v>
+        <v>1.05119254147369</v>
       </c>
       <c r="J6">
-        <v>1.040769246852644</v>
+        <v>1.039731603408932</v>
       </c>
       <c r="K6">
-        <v>1.048050189724598</v>
+        <v>1.046263466808329</v>
       </c>
       <c r="L6">
-        <v>1.044725107571791</v>
+        <v>1.043749485152566</v>
       </c>
       <c r="M6">
-        <v>1.055407545334124</v>
+        <v>1.054270553848559</v>
       </c>
       <c r="N6">
-        <v>1.01743357508437</v>
+        <v>1.017693483820165</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.052423649271834</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.051523810773664</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024130050367156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021443113053284</v>
+        <v>1.020420505570256</v>
       </c>
       <c r="D7">
-        <v>1.037954332014575</v>
+        <v>1.036200341393353</v>
       </c>
       <c r="E7">
-        <v>1.034522040209442</v>
+        <v>1.033571596166225</v>
       </c>
       <c r="F7">
-        <v>1.045347164194217</v>
+        <v>1.04423473187947</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.051790198492466</v>
+        <v>1.050999608922809</v>
       </c>
       <c r="J7">
-        <v>1.040307868067557</v>
+        <v>1.039309989025441</v>
       </c>
       <c r="K7">
-        <v>1.047612429939299</v>
+        <v>1.045877781174465</v>
       </c>
       <c r="L7">
-        <v>1.044218062700501</v>
+        <v>1.0432781752131</v>
       </c>
       <c r="M7">
-        <v>1.054924613791285</v>
+        <v>1.053824227451968</v>
       </c>
       <c r="N7">
-        <v>1.017278058240721</v>
+        <v>1.017606216123399</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.052041447425939</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.051170578568568</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02405871089105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017225076734242</v>
+        <v>1.016358902478431</v>
       </c>
       <c r="D8">
-        <v>1.035023391012293</v>
+        <v>1.033480450248738</v>
       </c>
       <c r="E8">
-        <v>1.031293529541633</v>
+        <v>1.030484268032485</v>
       </c>
       <c r="F8">
-        <v>1.042237769849407</v>
+        <v>1.041271829972961</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050842939730552</v>
+        <v>1.050158796356708</v>
       </c>
       <c r="J8">
-        <v>1.03834514785258</v>
+        <v>1.037502980749107</v>
       </c>
       <c r="K8">
-        <v>1.045748960128649</v>
+        <v>1.044225229421253</v>
       </c>
       <c r="L8">
-        <v>1.042065659283914</v>
+        <v>1.041266555445863</v>
       </c>
       <c r="M8">
-        <v>1.052874456302705</v>
+        <v>1.051920328200658</v>
       </c>
       <c r="N8">
-        <v>1.016616284595606</v>
+        <v>1.017174388554682</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.050418908921741</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.049663790325844</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023746926564509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.009531787660535</v>
+        <v>1.008934497794238</v>
       </c>
       <c r="D9">
-        <v>1.029704752293967</v>
+        <v>1.028533349296264</v>
       </c>
       <c r="E9">
-        <v>1.025449898460284</v>
+        <v>1.024883800880659</v>
       </c>
       <c r="F9">
-        <v>1.036612251548576</v>
+        <v>1.03590160196113</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.04905973430853</v>
+        <v>1.04856025711654</v>
       </c>
       <c r="J9">
-        <v>1.034752386398993</v>
+        <v>1.034175653411439</v>
       </c>
       <c r="K9">
-        <v>1.042333597444237</v>
+        <v>1.04117985444171</v>
       </c>
       <c r="L9">
-        <v>1.038143135375226</v>
+        <v>1.037585656335623</v>
       </c>
       <c r="M9">
-        <v>1.049137991109887</v>
+        <v>1.048437868462381</v>
       </c>
       <c r="N9">
-        <v>1.015404238629473</v>
+        <v>1.016291921682391</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.047461781340903</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.046907686284023</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023152064212737</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004258969904766</v>
+        <v>1.003875963316877</v>
       </c>
       <c r="D10">
-        <v>1.026097374512135</v>
+        <v>1.025201908070844</v>
       </c>
       <c r="E10">
-        <v>1.021497627044272</v>
+        <v>1.021122604983096</v>
       </c>
       <c r="F10">
-        <v>1.032840963965539</v>
+        <v>1.032325616258378</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047820274929169</v>
+        <v>1.047460870957173</v>
       </c>
       <c r="J10">
-        <v>1.032304623999398</v>
+        <v>1.031936639825489</v>
       </c>
       <c r="K10">
-        <v>1.04001089516518</v>
+        <v>1.03913057000976</v>
       </c>
       <c r="L10">
-        <v>1.035489288382628</v>
+        <v>1.035120677311851</v>
       </c>
       <c r="M10">
-        <v>1.046641544427932</v>
+        <v>1.046134760591844</v>
       </c>
       <c r="N10">
-        <v>1.014581027761182</v>
+        <v>1.015809870438569</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.045537028923723</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.04513597075659</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022746353081577</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.002288555599325</v>
+        <v>1.002011645038816</v>
       </c>
       <c r="D11">
-        <v>1.024896564562946</v>
+        <v>1.024115196327956</v>
       </c>
       <c r="E11">
-        <v>1.020196405396701</v>
+        <v>1.019912349376062</v>
       </c>
       <c r="F11">
-        <v>1.031852147745625</v>
+        <v>1.031424350943283</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047496894861869</v>
+        <v>1.047198633308147</v>
       </c>
       <c r="J11">
-        <v>1.031566436930856</v>
+        <v>1.031300976022891</v>
       </c>
       <c r="K11">
-        <v>1.039363760500942</v>
+        <v>1.038596227517706</v>
       </c>
       <c r="L11">
-        <v>1.034747239629932</v>
+        <v>1.03446827040899</v>
       </c>
       <c r="M11">
-        <v>1.046197380398482</v>
+        <v>1.04577702337711</v>
       </c>
       <c r="N11">
-        <v>1.014358161924254</v>
+        <v>1.015885046899755</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.045618169107318</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.045285671920831</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022675912147292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.001689648263248</v>
+        <v>1.00144236909041</v>
       </c>
       <c r="D12">
-        <v>1.024596415659</v>
+        <v>1.02384355032967</v>
       </c>
       <c r="E12">
-        <v>1.019876417124115</v>
+        <v>1.019616606870736</v>
       </c>
       <c r="F12">
-        <v>1.031733432250579</v>
+        <v>1.031328592354969</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047464317277173</v>
+        <v>1.047181221966161</v>
       </c>
       <c r="J12">
-        <v>1.031422670885674</v>
+        <v>1.031185810462807</v>
       </c>
       <c r="K12">
-        <v>1.039267086075202</v>
+        <v>1.038527771581143</v>
       </c>
       <c r="L12">
-        <v>1.034632472888074</v>
+        <v>1.03437739250631</v>
       </c>
       <c r="M12">
-        <v>1.046276917290964</v>
+        <v>1.045879230777047</v>
       </c>
       <c r="N12">
-        <v>1.014331063190488</v>
+        <v>1.015970329205722</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.046005042570831</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.045690582392699</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022689121415367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.00210703278573</v>
+        <v>1.001823404698891</v>
       </c>
       <c r="D13">
-        <v>1.02497065405272</v>
+        <v>1.024175199019352</v>
       </c>
       <c r="E13">
-        <v>1.020291554183981</v>
+        <v>1.019998801983641</v>
       </c>
       <c r="F13">
-        <v>1.032284769990682</v>
+        <v>1.031848361219631</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04765814456943</v>
+        <v>1.047351468343283</v>
       </c>
       <c r="J13">
-        <v>1.031730190221483</v>
+        <v>1.031458455195563</v>
       </c>
       <c r="K13">
-        <v>1.039592115682866</v>
+        <v>1.038810917508633</v>
       </c>
       <c r="L13">
-        <v>1.034997294017885</v>
+        <v>1.034709848192508</v>
       </c>
       <c r="M13">
-        <v>1.046776476225128</v>
+        <v>1.046347742631708</v>
       </c>
       <c r="N13">
-        <v>1.014453912247832</v>
+        <v>1.0160343654183</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.046674876147335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.046335950458456</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022767726869402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.002859425065145</v>
+        <v>1.002521013087693</v>
       </c>
       <c r="D14">
-        <v>1.025537666898969</v>
+        <v>1.024680708801106</v>
       </c>
       <c r="E14">
-        <v>1.020914648644209</v>
+        <v>1.020573496811387</v>
       </c>
       <c r="F14">
-        <v>1.032973884379372</v>
+        <v>1.032491158184629</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047895769342064</v>
+        <v>1.047555434904657</v>
       </c>
       <c r="J14">
-        <v>1.032149215332766</v>
+        <v>1.031824794494844</v>
       </c>
       <c r="K14">
-        <v>1.040009890922801</v>
+        <v>1.039168103093009</v>
       </c>
       <c r="L14">
-        <v>1.035469103550973</v>
+        <v>1.035134058215621</v>
       </c>
       <c r="M14">
-        <v>1.047315836837732</v>
+        <v>1.046841493575841</v>
       </c>
       <c r="N14">
-        <v>1.014607566192119</v>
+        <v>1.016070534544298</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.047273549696003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.046898618472902</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022852296345524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.003265387040534</v>
+        <v>1.0028997933607</v>
       </c>
       <c r="D15">
-        <v>1.025825894889624</v>
+        <v>1.0249387624676</v>
       </c>
       <c r="E15">
-        <v>1.021230566547902</v>
+        <v>1.020865642558075</v>
       </c>
       <c r="F15">
-        <v>1.033296238677487</v>
+        <v>1.032790710449915</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.048005129816864</v>
+        <v>1.047648431630498</v>
       </c>
       <c r="J15">
-        <v>1.032352679444787</v>
+        <v>1.03200207117615</v>
       </c>
       <c r="K15">
-        <v>1.040207354016147</v>
+        <v>1.039335808232834</v>
       </c>
       <c r="L15">
-        <v>1.035693144564499</v>
+        <v>1.035334703002472</v>
       </c>
       <c r="M15">
-        <v>1.047547818914825</v>
+        <v>1.047051003114553</v>
       </c>
       <c r="N15">
-        <v>1.014678727996561</v>
+        <v>1.016078408121883</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.04749424653048</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.047101562796997</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022888393004293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.005411803673731</v>
+        <v>1.004919760064622</v>
       </c>
       <c r="D16">
-        <v>1.027279623663258</v>
+        <v>1.026250977623751</v>
       </c>
       <c r="E16">
-        <v>1.022821943574953</v>
+        <v>1.02234712681841</v>
       </c>
       <c r="F16">
-        <v>1.034804480081182</v>
+        <v>1.034192568394426</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048504795316317</v>
+        <v>1.048072560437202</v>
       </c>
       <c r="J16">
-        <v>1.033336235077533</v>
+        <v>1.03286336947464</v>
       </c>
       <c r="K16">
-        <v>1.041137921431552</v>
+        <v>1.040126569265804</v>
       </c>
       <c r="L16">
-        <v>1.036755509404505</v>
+        <v>1.036288759884255</v>
       </c>
       <c r="M16">
-        <v>1.048537613299412</v>
+        <v>1.047935792289592</v>
       </c>
       <c r="N16">
-        <v>1.01500576694031</v>
+        <v>1.016100667930872</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.048238073436779</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.047762380079956</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023041149088084</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006665583098474</v>
+        <v>1.006112478617643</v>
       </c>
       <c r="D17">
-        <v>1.028098380888103</v>
+        <v>1.026998913336776</v>
       </c>
       <c r="E17">
-        <v>1.023717180181555</v>
+        <v>1.023189324316886</v>
       </c>
       <c r="F17">
-        <v>1.035597369456049</v>
+        <v>1.034933105756611</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048761026305563</v>
+        <v>1.048291888631954</v>
       </c>
       <c r="J17">
-        <v>1.033870000848677</v>
+        <v>1.033337772987782</v>
       </c>
       <c r="K17">
-        <v>1.041631049683277</v>
+        <v>1.04054955396476</v>
       </c>
       <c r="L17">
-        <v>1.037321759224662</v>
+        <v>1.036802620744744</v>
       </c>
       <c r="M17">
-        <v>1.049008765416451</v>
+        <v>1.048355153124458</v>
       </c>
       <c r="N17">
-        <v>1.015175586693026</v>
+        <v>1.016127004554813</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.048482191238898</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.047965509892456</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023114328060295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007265174277307</v>
+        <v>1.006693058338176</v>
       </c>
       <c r="D18">
-        <v>1.028436006203118</v>
+        <v>1.027313936595226</v>
       </c>
       <c r="E18">
-        <v>1.024082842508091</v>
+        <v>1.023538908561358</v>
       </c>
       <c r="F18">
-        <v>1.035820260175479</v>
+        <v>1.035139467399895</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048825798021915</v>
+        <v>1.048345574497172</v>
       </c>
       <c r="J18">
-        <v>1.034056494176357</v>
+        <v>1.033505573003281</v>
       </c>
       <c r="K18">
-        <v>1.04178130834679</v>
+        <v>1.040677282719755</v>
       </c>
       <c r="L18">
-        <v>1.037498431449515</v>
+        <v>1.03696333391012</v>
       </c>
       <c r="M18">
-        <v>1.04904806455059</v>
+        <v>1.048378014692006</v>
       </c>
       <c r="N18">
-        <v>1.015222188428754</v>
+        <v>1.016119562141438</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.048277121443983</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.047747337078582</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023120779604218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.007270636530218</v>
+        <v>1.006712273558702</v>
       </c>
       <c r="D19">
-        <v>1.028336202350766</v>
+        <v>1.027231144369183</v>
       </c>
       <c r="E19">
-        <v>1.023965771093219</v>
+        <v>1.023434809063772</v>
       </c>
       <c r="F19">
-        <v>1.035523252129311</v>
+        <v>1.034854670179099</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048718684031932</v>
+        <v>1.048248140189263</v>
       </c>
       <c r="J19">
-        <v>1.033928715463956</v>
+        <v>1.033390916317453</v>
       </c>
       <c r="K19">
-        <v>1.04162108704192</v>
+        <v>1.040533708858535</v>
       </c>
       <c r="L19">
-        <v>1.037320864414112</v>
+        <v>1.036798484444053</v>
       </c>
       <c r="M19">
-        <v>1.048694329399118</v>
+        <v>1.048036249157349</v>
       </c>
       <c r="N19">
-        <v>1.015158806542473</v>
+        <v>1.016062746853951</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.047674344527806</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.047153856479808</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023066570526484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.005623928718089</v>
+        <v>1.005167291644642</v>
       </c>
       <c r="D20">
-        <v>1.027030442458164</v>
+        <v>1.026049556254326</v>
       </c>
       <c r="E20">
-        <v>1.022519316100289</v>
+        <v>1.022079607851889</v>
       </c>
       <c r="F20">
-        <v>1.033817343664663</v>
+        <v>1.033238646880883</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048144503948341</v>
+        <v>1.047739805141806</v>
       </c>
       <c r="J20">
-        <v>1.032939765587783</v>
+        <v>1.032500465861725</v>
       </c>
       <c r="K20">
-        <v>1.040614082073221</v>
+        <v>1.039649315550843</v>
       </c>
       <c r="L20">
-        <v>1.036177420187912</v>
+        <v>1.035745015410491</v>
       </c>
       <c r="M20">
-        <v>1.047290524354765</v>
+        <v>1.046721173397562</v>
       </c>
       <c r="N20">
-        <v>1.014794776983747</v>
+        <v>1.01586301383306</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.046040163661556</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.045589585800681</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022848665822601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.001609648845217</v>
+        <v>1.001407950362775</v>
       </c>
       <c r="D21">
-        <v>1.024264611577782</v>
+        <v>1.023566236149239</v>
       </c>
       <c r="E21">
-        <v>1.019489659906128</v>
+        <v>1.019272884903212</v>
       </c>
       <c r="F21">
-        <v>1.030878008117516</v>
+        <v>1.030513480345119</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.047160942585638</v>
+        <v>1.046909450929388</v>
       </c>
       <c r="J21">
-        <v>1.031040225120981</v>
+        <v>1.030846923468198</v>
       </c>
       <c r="K21">
-        <v>1.038800417589533</v>
+        <v>1.038114482995364</v>
       </c>
       <c r="L21">
-        <v>1.034110968814085</v>
+        <v>1.033898100212695</v>
       </c>
       <c r="M21">
-        <v>1.045297085817227</v>
+        <v>1.0449389415153</v>
       </c>
       <c r="N21">
-        <v>1.014151295169488</v>
+        <v>1.015832147225933</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.044421985045492</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.044138539319757</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022541524807657</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9990643790679957</v>
+        <v>0.9990228905457728</v>
       </c>
       <c r="D22">
-        <v>1.022524728547184</v>
+        <v>1.02200403572661</v>
       </c>
       <c r="E22">
-        <v>1.017586529604487</v>
+        <v>1.017509842727232</v>
       </c>
       <c r="F22">
-        <v>1.029047828574738</v>
+        <v>1.0288180685162</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046539467248232</v>
+        <v>1.046384251031435</v>
       </c>
       <c r="J22">
-        <v>1.029845692346408</v>
+        <v>1.029806029786811</v>
       </c>
       <c r="K22">
-        <v>1.037662794078013</v>
+        <v>1.037151838185984</v>
       </c>
       <c r="L22">
-        <v>1.032817463201384</v>
+        <v>1.032742227793234</v>
       </c>
       <c r="M22">
-        <v>1.044065000183208</v>
+        <v>1.043839464378895</v>
       </c>
       <c r="N22">
-        <v>1.013748025295014</v>
+        <v>1.015808814351853</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.043446876492157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.043268380728763</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022348743917187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.000417878252441</v>
+        <v>1.000280858981083</v>
       </c>
       <c r="D23">
-        <v>1.023449463085697</v>
+        <v>1.02282621786133</v>
       </c>
       <c r="E23">
-        <v>1.01859785595092</v>
+        <v>1.018437928884744</v>
       </c>
       <c r="F23">
-        <v>1.03002034001742</v>
+        <v>1.02971154437354</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04687058605571</v>
+        <v>1.046658905795923</v>
       </c>
       <c r="J23">
-        <v>1.03048100024833</v>
+        <v>1.030349837469964</v>
       </c>
       <c r="K23">
-        <v>1.038267869906612</v>
+        <v>1.037655985573809</v>
       </c>
       <c r="L23">
-        <v>1.03350517925379</v>
+        <v>1.033348202003939</v>
       </c>
       <c r="M23">
-        <v>1.044720055541628</v>
+        <v>1.044416793682212</v>
       </c>
       <c r="N23">
-        <v>1.013962506913221</v>
+        <v>1.015779803193113</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.043965306595629</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.043725296274175</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022449016392477</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.005654942891959</v>
+        <v>1.005198347186506</v>
       </c>
       <c r="D24">
-        <v>1.02703784916</v>
+        <v>1.026057202284518</v>
       </c>
       <c r="E24">
-        <v>1.022526098242752</v>
+        <v>1.02208654553191</v>
       </c>
       <c r="F24">
-        <v>1.033798853371496</v>
+        <v>1.033220267660147</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048137648632044</v>
+        <v>1.047733140840888</v>
       </c>
       <c r="J24">
-        <v>1.032937034820109</v>
+        <v>1.032497749073055</v>
       </c>
       <c r="K24">
-        <v>1.040606223407987</v>
+        <v>1.039641671357359</v>
       </c>
       <c r="L24">
-        <v>1.036168850609185</v>
+        <v>1.035736589306989</v>
       </c>
       <c r="M24">
-        <v>1.047257329308893</v>
+        <v>1.04668807612583</v>
       </c>
       <c r="N24">
-        <v>1.014791573731057</v>
+        <v>1.01585669534147</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.045973376314373</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.045522853836417</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.0228438533933</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.011552894136879</v>
+        <v>1.010876539500101</v>
       </c>
       <c r="D25">
-        <v>1.031098620022027</v>
+        <v>1.029823251693565</v>
       </c>
       <c r="E25">
-        <v>1.026979639565917</v>
+        <v>1.026342668740544</v>
       </c>
       <c r="F25">
-        <v>1.038084573410138</v>
+        <v>1.037300987982538</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049534526093804</v>
+        <v>1.048982494185881</v>
       </c>
       <c r="J25">
-        <v>1.035697615868528</v>
+        <v>1.035043328220982</v>
       </c>
       <c r="K25">
-        <v>1.043232616329477</v>
+        <v>1.041975591247755</v>
       </c>
       <c r="L25">
-        <v>1.03917308591015</v>
+        <v>1.038545362625481</v>
       </c>
       <c r="M25">
-        <v>1.050119103537406</v>
+        <v>1.04934659048517</v>
       </c>
       <c r="N25">
-        <v>1.015723188321173</v>
+        <v>1.016491865984567</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.048238258232715</v>
+        <v>1.047626872167309</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023308991311831</v>
       </c>
     </row>
   </sheetData>
